--- a/Calc References.xlsx
+++ b/Calc References.xlsx
@@ -21,73 +21,73 @@
     <t>Description</t>
   </si>
   <si>
-    <t>The method setReferencedGeometricShapeCollection(ReferencedGeometricShapeCollection) is undefined for the type Calc</t>
-  </si>
-  <si>
-    <t>The method setReferencedCalculationCollection(ReferencedCalculationCollection) is undefined for the type Calc</t>
-  </si>
-  <si>
-    <t>The method setRdfID(String) is undefined for the type Calc</t>
-  </si>
-  <si>
-    <t>The method setMathML(String) is undefined for the type Calc</t>
-  </si>
-  <si>
-    <t>The method setDescription(String) is undefined for the type Calc</t>
-  </si>
-  <si>
-    <t>The method setCodingSchemeVersion(String) is undefined for the type Calc</t>
-  </si>
-  <si>
-    <t>The method setCodingSchemeDesignator(String) is undefined for the type Calc</t>
-  </si>
-  <si>
-    <t>The method setCodeValueCanBeNull(boolean) is undefined for the type Calc</t>
-  </si>
-  <si>
-    <t>The method setCodeValue(String) is undefined for the type Calc</t>
-  </si>
-  <si>
-    <t>The method setCodeMeaning(String) is undefined for the type Calc</t>
-  </si>
-  <si>
-    <t>The method setCalculationResultCollection(CalculationResultCollection) is undefined for the type Calc</t>
-  </si>
-  <si>
-    <t>The method setCagridId(Integer) is undefined for the type Calc</t>
-  </si>
-  <si>
-    <t>The method setAlgorithmVersion(String) is undefined for the type Calc</t>
-  </si>
-  <si>
-    <t>The method setAlgorithmName(String) is undefined for the type Calc</t>
-  </si>
-  <si>
-    <t>The method getUid() is undefined for the type Calc</t>
-  </si>
-  <si>
-    <t>The method getDescription() is undefined for the type Calc</t>
-  </si>
-  <si>
-    <t>The method getCodingSchemeVersion() is undefined for the type Calc</t>
-  </si>
-  <si>
-    <t>The method getCodingSchemeDesignator() is undefined for the type Calc</t>
-  </si>
-  <si>
-    <t>The method getCodeValue() is undefined for the type Calc</t>
-  </si>
-  <si>
-    <t>The method getCodeMeaning() is undefined for the type Calc</t>
-  </si>
-  <si>
-    <t>The method getCalculationResultCollection() is undefined for the type Calc</t>
-  </si>
-  <si>
-    <t>The method getAlgorithmVersion() is undefined for the type Calc</t>
-  </si>
-  <si>
-    <t>The method getAlgorithmName() is undefined for the type Calc</t>
+    <t>setReferencedGeometricShapeCollection(ReferencedGeometricShapeCollection) Calc</t>
+  </si>
+  <si>
+    <t>setReferencedCalculationCollection(ReferencedCalculationCollection) Calc</t>
+  </si>
+  <si>
+    <t>setRdfID(String) Calc</t>
+  </si>
+  <si>
+    <t>setMathML(String) Calc</t>
+  </si>
+  <si>
+    <t>setDescription(String) Calc</t>
+  </si>
+  <si>
+    <t>setCodingSchemeVersion(String) Calc</t>
+  </si>
+  <si>
+    <t>setCodingSchemeDesignator(String) Calc</t>
+  </si>
+  <si>
+    <t>setCodeValueCanBeNull(boolean) Calc</t>
+  </si>
+  <si>
+    <t>setCodeValue(String) Calc</t>
+  </si>
+  <si>
+    <t>setCodeMeaning(String) Calc</t>
+  </si>
+  <si>
+    <t>setCalculationResultCollection(CalculationResultCollection) Calc</t>
+  </si>
+  <si>
+    <t>setCagridId(Integer) Calc</t>
+  </si>
+  <si>
+    <t>setAlgorithmVersion(String) Calc</t>
+  </si>
+  <si>
+    <t>setAlgorithmName(String) Calc</t>
+  </si>
+  <si>
+    <t>getUid() Calc</t>
+  </si>
+  <si>
+    <t>getDescription() Calc</t>
+  </si>
+  <si>
+    <t>getCodingSchemeVersion() Calc</t>
+  </si>
+  <si>
+    <t>getCodingSchemeDesignator() Calc</t>
+  </si>
+  <si>
+    <t>getCodeValue() Calc</t>
+  </si>
+  <si>
+    <t>getCodeMeaning() Calc</t>
+  </si>
+  <si>
+    <t>getCalculationResultCollection() Calc</t>
+  </si>
+  <si>
+    <t>getAlgorithmVersion() Calc</t>
+  </si>
+  <si>
+    <t>getAlgorithmName() Calc</t>
   </si>
 </sst>
 </file>
@@ -436,12 +436,12 @@
   <dimension ref="A1:A25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="114.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="79.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">

--- a/Calc References.xlsx
+++ b/Calc References.xlsx
@@ -16,10 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
-  <si>
-    <t>Description</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>setReferencedGeometricShapeCollection(ReferencedGeometricShapeCollection) Calc</t>
   </si>
@@ -88,13 +85,23 @@
   </si>
   <si>
     <t>getAlgorithmName() Calc</t>
+  </si>
+  <si>
+    <t>SETTERS</t>
+  </si>
+  <si>
+    <t>GETTERS</t>
+  </si>
+  <si>
+    <t>Used in Epad
+(Y/N)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,8 +109,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -112,13 +127,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -135,10 +162,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -433,139 +470,149 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A25"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="79.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" ht="30">
+      <c r="A1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
+    <row r="6" spans="1:2">
+      <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="1" t="s">
+    <row r="7" spans="1:2">
+      <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="1" t="s">
+    <row r="8" spans="1:2">
+      <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="1" t="s">
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
+    <row r="10" spans="1:2">
+      <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="1" t="s">
+    <row r="11" spans="1:2">
+      <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="1" t="s">
+    <row r="12" spans="1:2">
+      <c r="A12" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="2" t="s">
+    <row r="14" spans="1:2">
+      <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="1" t="s">
+    <row r="15" spans="1:2">
+      <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="1" t="s">
+    <row r="16" spans="1:2">
+      <c r="A16" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="1" t="s">
+    <row r="18" spans="1:1">
+      <c r="A18" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="1" t="s">
+    <row r="19" spans="1:1">
+      <c r="A19" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="1" t="s">
+    <row r="20" spans="1:1">
+      <c r="A20" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="1" t="s">
+    <row r="21" spans="1:1">
+      <c r="A21" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="1" t="s">
+    <row r="22" spans="1:1">
+      <c r="A22" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="1" t="s">
+    <row r="23" spans="1:1">
+      <c r="A23" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="s">
+    <row r="24" spans="1:1">
+      <c r="A24" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="1" t="s">
+    <row r="25" spans="1:1">
+      <c r="A25" s="2" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
